--- a/office/근무표작성중/근무표7월초안(작성중).xlsx
+++ b/office/근무표작성중/근무표7월초안(작성중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gas00\MathTool\office\근무표작성중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD14651F-EB96-4D3D-A98A-90DBF68E135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1443A4-474A-4AD9-98BE-12A5C5AE1033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0584B32C-BEBA-4F96-AAC3-2FCF421C1532}"/>
   </bookViews>
@@ -16,12 +16,16 @@
     <sheet name="x" sheetId="4" r:id="rId1"/>
     <sheet name="xx" sheetId="5" r:id="rId2"/>
     <sheet name="7월초안" sheetId="8" r:id="rId3"/>
-    <sheet name="8월초안" sheetId="9" r:id="rId4"/>
-    <sheet name="xxx" sheetId="7" r:id="rId5"/>
+    <sheet name="7월초안(박휴가) " sheetId="11" r:id="rId4"/>
+    <sheet name="8월초안" sheetId="9" r:id="rId5"/>
+    <sheet name="xxx" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'7월초안'!$G$2:$G$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'8월초안'!$G$2:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'7월초안(박휴가) '!$G$2:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'8월초안'!$G$2:$G$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">x!$G$2:$G$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">xx!$G$2:$G$37</definedName>
   </definedNames>
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="55">
   <si>
     <t>권헌일</t>
   </si>
@@ -162,6 +166,79 @@
   </si>
   <si>
     <t>{'이영재': {'주간': 10, '야간': 10, '휴무': 11}, '박병훈': {'주간': 10, '야간': 11, '휴무': 10}, '권헌일': {'주간': 11, '야간': 10, '휴무': 10},</t>
+  </si>
+  <si>
+    <t>{'주간': '박병훈', '야간': '이영재', '휴무': '권헌일'}</t>
+  </si>
+  <si>
+    <t>{'주간': '권헌일', '야간': '박병훈', '휴무': '이영재'}</t>
+  </si>
+  <si>
+    <t>{'주간': '이영재', '야간': '권헌일', '휴무': '박병훈'}</t>
+  </si>
+  <si>
+    <t>월</t>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+  </si>
+  <si>
+    <t>목</t>
+  </si>
+  <si>
+    <t>금</t>
+  </si>
+  <si>
+    <t>토</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+  <si>
+    <t>{'주간': '소장님', '야간': '이영재', '휴무': '박병훈,권헌일'}</t>
+  </si>
+  <si>
+    <t>소장님</t>
+  </si>
+  <si>
+    <t>박병훈,권헌일</t>
+  </si>
+  <si>
+    <t>휴가 3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'주간': '권헌일', '야간': '이영재', '휴무': '박병훈'}</t>
+  </si>
+  <si>
+    <t>{'주간': '박병훈', '야간': '권헌일', '휴무': '이영재'}</t>
+  </si>
+  <si>
+    <t>{'주간': '이영재', '야간': '박병훈', '휴무': '권헌일'}</t>
+  </si>
+  <si>
+    <t>{'주간': '권헌일', '야간': '이영재', '휴무': '박병훈'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간</t>
+  </si>
+  <si>
+    <t>야간</t>
+  </si>
+  <si>
+    <t>휴무</t>
   </si>
 </sst>
 </file>
@@ -392,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,12 +491,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -431,7 +502,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -441,23 +512,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -474,6 +530,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,12 +555,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,7 +894,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -841,24 +909,24 @@
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1851,24 +1919,24 @@
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -3187,7 +3255,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:M14"/>
+      <selection activeCell="M14" sqref="M14:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3203,21 +3271,21 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="16" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="I1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -3266,10 +3334,10 @@
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3384,7 +3452,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="O8" s="8"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -3402,12 +3470,12 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -3425,12 +3493,12 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -3448,12 +3516,12 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -3471,15 +3539,15 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="10" t="str">
         <f>A1</f>
         <v>7월</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -3497,19 +3565,19 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3529,7 +3597,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K14" s="4">
@@ -3540,11 +3608,11 @@
         <f>COUNTIF(C$3:C$33,LEFT($J$14,2)&amp;"*")</f>
         <v>10</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="12">
         <f>COUNTIF(D$3:D$33,LEFT($J$14,2)&amp;"*")</f>
         <v>11</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="9">
         <f>SUM(K14:M14)</f>
         <v>31</v>
       </c>
@@ -3580,7 +3648,7 @@
         <f>COUNTIF(D$3:D$33,LEFT($J$15,2)&amp;"*")</f>
         <v>10</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <f t="shared" ref="N15:N19" si="0">SUM(K15:M15)</f>
         <v>31</v>
       </c>
@@ -3616,7 +3684,7 @@
         <f>COUNTIF(D$3:D$33,LEFT($J$16,2)&amp;"*")</f>
         <v>10</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -3641,18 +3709,18 @@
         <v>15</v>
       </c>
       <c r="K17" s="4">
-        <f>COUNTIF(E$3:E$33,LEFT($J$17,2)&amp;"*")</f>
+        <f t="shared" ref="K17:M19" si="1">COUNTIF(E$3:E$33,LEFT($J$17,2)&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f>COUNTIF(F$3:F$33,LEFT($J$17,2)&amp;"*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <f>COUNTIF(G$3:G$33,LEFT($J$17,2)&amp;"*")</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3673,22 +3741,22 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="12" t="s">
         <v>17</v>
       </c>
       <c r="K18" s="4">
-        <f>COUNTIF(E$3:E$33,LEFT($J$17,2)&amp;"*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f>COUNTIF(F$3:F$33,LEFT($J$17,2)&amp;"*")</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="14">
-        <f>COUNTIF(G$3:G$33,LEFT($J$17,2)&amp;"*")</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3713,18 +3781,18 @@
         <v>18</v>
       </c>
       <c r="K19" s="4">
-        <f>COUNTIF(E$3:E$33,LEFT($J$17,2)&amp;"*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <f>COUNTIF(F$3:F$33,LEFT($J$17,2)&amp;"*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M19" s="4">
-        <f>COUNTIF(G$3:G$33,LEFT($J$17,2)&amp;"*")</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3979,13 +4047,814 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E432B6F-4833-4C00-B8DD-B166CDE1F120}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="11" width="10.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="I1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="J12" s="10" t="str">
+        <f>A1</f>
+        <v>7월</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="J13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="J14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f>COUNTIF(B$3:B$33,LEFT($J$14,2)&amp;"*")</f>
+        <v>10</v>
+      </c>
+      <c r="L14" s="4">
+        <f>COUNTIF(C$3:C$33,LEFT($J$14,2)&amp;"*")</f>
+        <v>10</v>
+      </c>
+      <c r="M14" s="12">
+        <v>11</v>
+      </c>
+      <c r="N14" s="9">
+        <f>SUM(K14:M14)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="J15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4">
+        <f>COUNTIF(B$3:B$33,LEFT($J$15,2)&amp;"*")</f>
+        <v>10</v>
+      </c>
+      <c r="L15" s="4">
+        <f>COUNTIF(C$3:C$33,LEFT($J$15,2)&amp;"*")</f>
+        <v>11</v>
+      </c>
+      <c r="M15" s="4">
+        <v>10</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" ref="N15:N19" si="0">SUM(K15:M15)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="J16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4">
+        <f>COUNTIF(B$3:B$33,LEFT($J$16,2)&amp;"*")</f>
+        <v>8</v>
+      </c>
+      <c r="L16" s="4">
+        <f>COUNTIF(C$3:C$33,LEFT($J$16,2)&amp;"*")</f>
+        <v>10</v>
+      </c>
+      <c r="M16" s="4">
+        <v>13</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="J17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" ref="K17:M19" si="1">COUNTIF(E$3:E$33,LEFT($J$17,2)&amp;"*")</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="J18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FDAFDA-29EF-4AF2-8FFF-DFD85C43F6F9}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -4002,21 +4871,21 @@
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="16" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="I1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -4085,10 +4954,10 @@
       <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4177,7 +5046,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="O8" s="8"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -4195,12 +5064,12 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -4218,12 +5087,12 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -4241,12 +5110,12 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -4264,15 +5133,15 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="10" t="str">
         <f>A1</f>
         <v>8월</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -4290,19 +5159,19 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4337,7 +5206,7 @@
         <f>COUNTIF(D$3:D$33,LEFT($J$14,2)&amp;"*")</f>
         <v>10</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="9">
         <f>SUM(K14:M14)</f>
         <v>31</v>
       </c>
@@ -4358,7 +5227,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K15" s="4">
@@ -4369,11 +5238,11 @@
         <f>COUNTIF(C$3:C$33,LEFT($J$15,2)&amp;"*")</f>
         <v>10</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="12">
         <f>COUNTIF(D$3:D$33,LEFT($J$15,2)&amp;"*")</f>
         <v>11</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <f t="shared" ref="N15:N19" si="0">SUM(K15:M15)</f>
         <v>31</v>
       </c>
@@ -4409,7 +5278,7 @@
         <f>COUNTIF(D$3:D$33,LEFT($J$16,2)&amp;"*")</f>
         <v>10</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -4430,22 +5299,22 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="K17" s="4">
-        <f>COUNTIF(E$3:E$33,LEFT($J$17,2)&amp;"*")</f>
+        <f t="shared" ref="K17:M19" si="1">COUNTIF(E$3:E$33,LEFT($J$17,2)&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f>COUNTIF(F$3:F$33,LEFT($J$17,2)&amp;"*")</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="14">
-        <f>COUNTIF(G$3:G$33,LEFT($J$17,2)&amp;"*")</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4470,18 +5339,18 @@
         <v>17</v>
       </c>
       <c r="K18" s="4">
-        <f>COUNTIF(E$3:E$33,LEFT($J$17,2)&amp;"*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f>COUNTIF(F$3:F$33,LEFT($J$17,2)&amp;"*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <f>COUNTIF(G$3:G$33,LEFT($J$17,2)&amp;"*")</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4506,18 +5375,18 @@
         <v>18</v>
       </c>
       <c r="K19" s="4">
-        <f>COUNTIF(E$3:E$33,LEFT($J$17,2)&amp;"*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <f>COUNTIF(F$3:F$33,LEFT($J$17,2)&amp;"*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M19" s="4">
-        <f>COUNTIF(G$3:G$33,LEFT($J$17,2)&amp;"*")</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4572,7 +5441,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4774,828 +5643,827 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF36F75-9EEC-4B13-B40C-62BAAE799C85}">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="F1" sqref="F1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="2" width="29.125" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="20"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="23" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="23" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="23" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="23" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="23" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="23" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="23" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="23" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="23" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="23" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="23" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="23" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="23" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="28"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="25" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="22" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="23" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="1"/>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="23" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="1"/>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="23" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="23" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="23" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="1"/>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="23" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="1"/>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="23" t="s">
+      <c r="A39" s="26"/>
+      <c r="B39" s="1"/>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="23" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="1"/>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="23" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="1"/>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="23" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="1"/>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="23" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="23" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="1"/>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="23" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="1"/>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="23" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="1"/>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="23" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="1"/>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="23" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="1"/>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="23" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="1"/>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="23" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="1"/>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="23" t="s">
+      <c r="A51" s="26"/>
+      <c r="B51" s="1"/>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="23" t="s">
+      <c r="A52" s="26"/>
+      <c r="B52" s="1"/>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="23" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="1"/>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="23" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="1"/>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="23" t="s">
+      <c r="A55" s="26"/>
+      <c r="B55" s="1"/>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="23" t="s">
+      <c r="A56" s="26"/>
+      <c r="B56" s="1"/>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="23" t="s">
+      <c r="A57" s="26"/>
+      <c r="B57" s="1"/>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="23" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="1"/>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="23" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="1"/>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="23" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="1"/>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="23" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="1"/>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="28"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="25" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5607,4 +6475,1378 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ED7D2F-048E-4B89-A152-8D7B77325C0E}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.75" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886A2F9-C09C-4910-9B66-F79DCB1347D7}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.75" customWidth="1"/>
+    <col min="2" max="2" width="5.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/office/근무표작성중/근무표7월초안(작성중).xlsx
+++ b/office/근무표작성중/근무표7월초안(작성중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gas00\MathTool\office\근무표작성중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1443A4-474A-4AD9-98BE-12A5C5AE1033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66771046-7E96-46F5-8D27-D28EDD2287A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0584B32C-BEBA-4F96-AAC3-2FCF421C1532}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="56">
   <si>
     <t>권헌일</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>휴무</t>
+  </si>
+  <si>
+    <t>{'주간': '소장님', '야간': '권헌일', '휴무': '이영재,박병훈'}</t>
   </si>
 </sst>
 </file>
@@ -4054,7 +4057,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4147,13 +4150,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -4199,13 +4202,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4242,13 +4245,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -4283,13 +4286,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4306,13 +4309,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4329,13 +4332,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4355,13 +4358,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4387,13 +4390,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4403,11 +4406,11 @@
       </c>
       <c r="K14" s="4">
         <f>COUNTIF(B$3:B$33,LEFT($J$14,2)&amp;"*")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L14" s="4">
         <f>COUNTIF(C$3:C$33,LEFT($J$14,2)&amp;"*")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M14" s="12">
         <v>11</v>
@@ -4422,13 +4425,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4457,13 +4460,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4473,11 +4476,11 @@
       </c>
       <c r="K16" s="4">
         <f>COUNTIF(B$3:B$33,LEFT($J$16,2)&amp;"*")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L16" s="4">
         <f>COUNTIF(C$3:C$33,LEFT($J$16,2)&amp;"*")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16" s="4">
         <v>13</v>
@@ -4495,13 +4498,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4531,13 +4534,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -4567,13 +4570,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4603,13 +4606,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4620,13 +4623,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4654,13 +4657,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4721,9 +4724,7 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
@@ -4738,14 +4739,12 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4755,9 +4754,7 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
         <v>3</v>
       </c>
@@ -6514,7 +6511,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -6523,13 +6520,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6554,7 +6551,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -6563,13 +6560,13 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6594,7 +6591,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -6603,13 +6600,13 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6634,7 +6631,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -6643,18 +6640,18 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -6663,18 +6660,18 @@
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -6683,18 +6680,18 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -6703,18 +6700,18 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -6723,18 +6720,18 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -6743,18 +6740,18 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -6763,18 +6760,18 @@
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -6783,18 +6780,18 @@
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -6803,18 +6800,18 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -6823,18 +6820,18 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -6843,18 +6840,18 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -6863,13 +6860,13 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6894,7 +6891,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -6903,13 +6900,13 @@
         <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6994,7 +6991,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -7006,10 +7003,10 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7122,9 +7119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886A2F9-C09C-4910-9B66-F79DCB1347D7}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
